--- a/18-ajout-de-librairies-cql/ig/StructureDefinition-medication-type.xlsx
+++ b/18-ajout-de-librairies-cql/ig/StructureDefinition-medication-type.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-16T08:05:19+00:00</t>
+    <t>2024-09-16T08:30:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/18-ajout-de-librairies-cql/ig/StructureDefinition-medication-type.xlsx
+++ b/18-ajout-de-librairies-cql/ig/StructureDefinition-medication-type.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-16T08:30:51+00:00</t>
+    <t>2024-09-16T08:46:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/18-ajout-de-librairies-cql/ig/StructureDefinition-medication-type.xlsx
+++ b/18-ajout-de-librairies-cql/ig/StructureDefinition-medication-type.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-16T08:46:36+00:00</t>
+    <t>2024-09-16T09:47:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
